--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,37</t>
+          <t>0,0; 17,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,43</t>
+          <t>0,0; 20,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,54</t>
+          <t>0,0; 21,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,29</t>
+          <t>0,0; 32,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,69</t>
+          <t>0,0; 41,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>0,0; 13,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,3</t>
+          <t>0,0; 18,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 23,1</t>
+          <t>2,38; 22,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,8</t>
+          <t>3,78; 11,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,16</t>
+          <t>4,86; 15,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 15,61</t>
+          <t>4,41; 16,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,4</t>
+          <t>2,46; 9,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,66</t>
+          <t>1,67; 9,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,56</t>
+          <t>3,86; 15,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,95</t>
+          <t>5,12; 15,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,14</t>
+          <t>2,02; 10,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,32</t>
+          <t>3,74; 9,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,57</t>
+          <t>5,27; 12,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,8</t>
+          <t>6,18; 13,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,48</t>
+          <t>3,11; 8,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,39</t>
+          <t>5,16; 11,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 11,81</t>
+          <t>4,74; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,64</t>
+          <t>3,3; 9,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,33</t>
+          <t>4,7; 11,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,94</t>
+          <t>3,96; 10,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 16,0</t>
+          <t>7,3; 16,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,45</t>
+          <t>4,78; 11,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,05</t>
+          <t>3,37; 8,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,12</t>
+          <t>5,12; 10,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,32</t>
+          <t>6,64; 12,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,71</t>
+          <t>4,7; 8,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,15</t>
+          <t>4,81; 9,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 10,28</t>
+          <t>2,89; 10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 19,11</t>
+          <t>8,64; 19,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,9</t>
+          <t>3,87; 11,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,52</t>
+          <t>6,35; 14,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,66</t>
+          <t>4,09; 11,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 21,56</t>
+          <t>9,63; 20,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,68</t>
+          <t>6,81; 16,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,89</t>
+          <t>3,38; 9,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,49</t>
+          <t>4,34; 9,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 18,23</t>
+          <t>10,35; 18,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,99</t>
+          <t>6,24; 11,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,55</t>
+          <t>5,74; 10,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,39</t>
+          <t>6,98; 15,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,13</t>
+          <t>5,47; 13,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,13</t>
+          <t>3,32; 9,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 13,39</t>
+          <t>5,69; 13,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,53</t>
+          <t>4,28; 11,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,88</t>
+          <t>3,84; 11,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,79</t>
+          <t>4,04; 10,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,37</t>
+          <t>4,99; 11,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 12,0</t>
+          <t>6,46; 11,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,73</t>
+          <t>5,28; 10,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,88</t>
+          <t>4,43; 9,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,34</t>
+          <t>6,26; 11,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,1</t>
+          <t>6,37; 9,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,48</t>
+          <t>7,21; 11,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,62</t>
+          <t>5,1; 8,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,83</t>
+          <t>6,14; 9,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,65</t>
+          <t>4,91; 8,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,83</t>
+          <t>8,03; 12,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,59</t>
+          <t>6,77; 10,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,81</t>
+          <t>4,6; 7,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,7</t>
+          <t>5,97; 8,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,38</t>
+          <t>8,19; 11,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,95</t>
+          <t>6,28; 9,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,27</t>
+          <t>6,0; 8,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,62</t>
+          <t>2,03; 9,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>4,47; 14,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,73</t>
+          <t>5,59; 17,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,91; 9,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,19</t>
+          <t>3,45; 10,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,15</t>
+          <t>4,19; 13,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,34</t>
+          <t>4,53; 14,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>2,22; 8,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,45</t>
+          <t>3,61; 8,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,05</t>
+          <t>5,48; 11,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 22,57</t>
+          <t>6,31; 13,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>2,66; 7,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,98</t>
+          <t>3,71; 11,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 15,03</t>
+          <t>7,26; 16,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,21</t>
+          <t>4,82; 11,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 9,67</t>
+          <t>3,44; 9,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,52</t>
+          <t>4,81; 12,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 15,17</t>
+          <t>4,53; 12,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 15,9</t>
+          <t>3,24; 9,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,06</t>
+          <t>4,88; 12,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,35</t>
+          <t>5,42; 10,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,87</t>
+          <t>6,82; 12,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 13,82</t>
+          <t>4,62; 8,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,43</t>
+          <t>4,87; 9,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,84</t>
+          <t>3,9; 11,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,37</t>
+          <t>9,71; 20,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,07</t>
+          <t>6,61; 15,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,37</t>
+          <t>2,76; 9,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 10,82</t>
+          <t>2,91; 10,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 16,89</t>
+          <t>8,62; 18,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,79</t>
+          <t>4,01; 12,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,74</t>
+          <t>6,7; 14,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,23</t>
+          <t>4,27; 9,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 12,62</t>
+          <t>10,49; 18,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,8</t>
+          <t>6,14; 12,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,15</t>
+          <t>5,45; 10,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,02</t>
+          <t>4,54; 12,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,12</t>
+          <t>4,03; 11,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,55</t>
+          <t>4,03; 10,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,28</t>
+          <t>5,26; 11,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 11,92</t>
+          <t>7,23; 15,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 20,62</t>
+          <t>4,9; 12,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 16,31</t>
+          <t>3,26; 9,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,95</t>
+          <t>6,12; 13,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,31</t>
+          <t>6,37; 11,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,45</t>
+          <t>5,26; 10,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,78</t>
+          <t>4,37; 9,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,83</t>
+          <t>6,22; 11,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,3</t>
+          <t>4,96; 8,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,52</t>
+          <t>7,93; 12,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,83</t>
+          <t>6,55; 10,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,37</t>
+          <t>4,46; 7,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,3</t>
+          <t>6,3; 9,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,15</t>
+          <t>7,17; 11,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,97</t>
+          <t>5,07; 8,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,7</t>
+          <t>6,36; 10,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,62</t>
+          <t>5,97; 8,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,53</t>
+          <t>8,28; 11,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,05</t>
+          <t>6,37; 8,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,4</t>
+          <t>5,98; 8,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,17%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,64%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 9,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 11,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 8,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 9,81</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 8,51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,03; 12,55</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 10,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 7,93</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 8,71</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 11,37</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 9,04</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 8,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
